--- a/tests/fixtures/constants/sets.xlsx
+++ b/tests/fixtures/constants/sets.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git_repos\pyesm\default\0_constants\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git_repos\pyesm\tests\fixtures\constants\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5FBF23E-F169-43F0-917E-309FA493A32D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CBB1D1A-4A0B-45AA-9A7D-80D3A1824646}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5350" yWindow="3150" windowWidth="28800" windowHeight="15370" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-38490" yWindow="0" windowWidth="19380" windowHeight="20970" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="_set_CASE" sheetId="1" r:id="rId1"/>
@@ -457,7 +457,7 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="D56" sqref="D56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -538,7 +538,7 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
